--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200521更新/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E4EE2-2694-0C4B-84A8-6A530AF5E288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="17080" windowHeight="19540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="465" windowWidth="17085" windowHeight="15600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$91</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -341,11 +335,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,7 +490,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,28 +760,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -795,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -803,23 +797,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>68</v>
       </c>
       <c r="B5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>69</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -827,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -835,12 +829,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -848,31 +842,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -880,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -888,7 +882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -904,19 +898,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H526"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
         <v>43964</v>
       </c>
@@ -924,7 +918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -950,7 +944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>11</v>
       </c>
@@ -974,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>17</v>
       </c>
@@ -994,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>32</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>35</v>
       </c>
@@ -1042,7 +1036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>40</v>
       </c>
@@ -1066,7 +1060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>65</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>145</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>186</v>
       </c>
@@ -1144,7 +1138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>213</v>
       </c>
@@ -1170,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>306</v>
       </c>
@@ -1194,7 +1188,7 @@
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="19">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>368</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>369</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>370</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>371</v>
       </c>
@@ -1296,7 +1290,7 @@
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="19">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>419</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>424</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>463</v>
       </c>
@@ -1374,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="38">
+    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>509</v>
       </c>
@@ -1400,7 +1394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>546</v>
       </c>
@@ -1424,7 +1418,7 @@
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="19">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>548</v>
       </c>
@@ -1448,7 +1442,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="19">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>558</v>
       </c>
@@ -1474,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>559</v>
       </c>
@@ -1500,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>680</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>692</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>754</v>
       </c>
@@ -1576,7 +1570,7 @@
       </c>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" ht="19">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>755</v>
       </c>
@@ -1600,7 +1594,7 @@
       </c>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" ht="19">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>756</v>
       </c>
@@ -1626,7 +1620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>893</v>
       </c>
@@ -1652,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>894</v>
       </c>
@@ -1676,7 +1670,7 @@
       </c>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" ht="19">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>967</v>
       </c>
@@ -1702,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>968</v>
       </c>
@@ -1728,7 +1722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="38">
+    <row r="34" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
         <v>1015</v>
       </c>
@@ -1754,7 +1748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
         <v>1016</v>
       </c>
@@ -1780,7 +1774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
         <v>1017</v>
       </c>
@@ -1804,7 +1798,7 @@
       </c>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8" ht="19">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <v>1018</v>
       </c>
@@ -1828,7 +1822,7 @@
       </c>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:8" ht="19">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="8">
         <v>1019</v>
       </c>
@@ -1852,7 +1846,7 @@
       </c>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="1:8" ht="19">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
         <v>1074</v>
       </c>
@@ -1876,7 +1870,7 @@
       </c>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8" ht="19">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
         <v>1075</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>1079</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <v>1096</v>
       </c>
@@ -1952,7 +1946,7 @@
       </c>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="1:8" ht="19">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
         <v>1117</v>
       </c>
@@ -1976,7 +1970,7 @@
       </c>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="1:8" ht="19">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
         <v>1203</v>
       </c>
@@ -2000,7 +1994,7 @@
       </c>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8" ht="19">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
         <v>1204</v>
       </c>
@@ -2024,7 +2018,7 @@
       </c>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8" ht="19">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="8">
         <v>1205</v>
       </c>
@@ -2048,7 +2042,7 @@
       </c>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" ht="38">
+    <row r="47" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
         <v>1302</v>
       </c>
@@ -2072,7 +2066,7 @@
       </c>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="1:8" ht="19">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
         <v>1336</v>
       </c>
@@ -2096,7 +2090,7 @@
       </c>
       <c r="H48" s="14"/>
     </row>
-    <row r="49" spans="1:8" ht="19">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="8">
         <v>1376</v>
       </c>
@@ -2120,7 +2114,7 @@
       </c>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="1:8" ht="19">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="8">
         <v>1414</v>
       </c>
@@ -2144,7 +2138,7 @@
       </c>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8" ht="19">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="8">
         <v>1429</v>
       </c>
@@ -2168,7 +2162,7 @@
       </c>
       <c r="H51" s="14"/>
     </row>
-    <row r="52" spans="1:8" ht="19">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="8">
         <v>1470</v>
       </c>
@@ -2192,7 +2186,7 @@
       </c>
       <c r="H52" s="14"/>
     </row>
-    <row r="53" spans="1:8" ht="19">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="8">
         <v>1471</v>
       </c>
@@ -2216,7 +2210,7 @@
       </c>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="1:8" ht="19">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="8">
         <v>1488</v>
       </c>
@@ -2240,7 +2234,7 @@
       </c>
       <c r="H54" s="14"/>
     </row>
-    <row r="55" spans="1:8" ht="19">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="8">
         <v>1489</v>
       </c>
@@ -2264,7 +2258,7 @@
       </c>
       <c r="H55" s="14"/>
     </row>
-    <row r="56" spans="1:8" ht="19">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="8">
         <v>1490</v>
       </c>
@@ -2288,7 +2282,7 @@
       </c>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:8" ht="38">
+    <row r="57" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A57" s="8">
         <v>1501</v>
       </c>
@@ -2312,7 +2306,7 @@
       </c>
       <c r="H57" s="14"/>
     </row>
-    <row r="58" spans="1:8" ht="19">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="8">
         <v>1530</v>
       </c>
@@ -2336,7 +2330,7 @@
       </c>
       <c r="H58" s="14"/>
     </row>
-    <row r="59" spans="1:8" ht="19">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="8">
         <v>1531</v>
       </c>
@@ -2360,7 +2354,7 @@
       </c>
       <c r="H59" s="14"/>
     </row>
-    <row r="60" spans="1:8" ht="19">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="8">
         <v>1541</v>
       </c>
@@ -2384,7 +2378,7 @@
       </c>
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:8" ht="19">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="8">
         <v>1542</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="19">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="8">
         <v>1543</v>
       </c>
@@ -2436,7 +2430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="19">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="8">
         <v>1557</v>
       </c>
@@ -2460,7 +2454,7 @@
       </c>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="1:8" ht="19">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="8">
         <v>1558</v>
       </c>
@@ -2484,7 +2478,7 @@
       </c>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="1:8" ht="38">
+    <row r="65" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A65" s="8">
         <v>1573</v>
       </c>
@@ -2510,7 +2504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="19">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="8">
         <v>1600</v>
       </c>
@@ -2534,7 +2528,7 @@
       </c>
       <c r="H66" s="14"/>
     </row>
-    <row r="67" spans="1:8" ht="19">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="8">
         <v>1601</v>
       </c>
@@ -2558,7 +2552,7 @@
       </c>
       <c r="H67" s="14"/>
     </row>
-    <row r="68" spans="1:8" ht="19">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="8">
         <v>1602</v>
       </c>
@@ -2582,7 +2576,7 @@
       </c>
       <c r="H68" s="14"/>
     </row>
-    <row r="69" spans="1:8" ht="19">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="8">
         <v>1603</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="19">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="8">
         <v>1629</v>
       </c>
@@ -2632,7 +2626,7 @@
       </c>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8" ht="19">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="8">
         <v>1646</v>
       </c>
@@ -2658,7 +2652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="19">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="8">
         <v>1647</v>
       </c>
@@ -2682,7 +2676,7 @@
       </c>
       <c r="H72" s="14"/>
     </row>
-    <row r="73" spans="1:8" ht="19">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="8">
         <v>1648</v>
       </c>
@@ -2706,7 +2700,7 @@
       </c>
       <c r="H73" s="14"/>
     </row>
-    <row r="74" spans="1:8" ht="19">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>1649</v>
       </c>
@@ -2730,7 +2724,7 @@
       </c>
       <c r="H74" s="14"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
         <v>1668</v>
       </c>
@@ -2754,7 +2748,7 @@
       </c>
       <c r="H75" s="14"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="10">
         <v>1674</v>
       </c>
@@ -2778,7 +2772,7 @@
       </c>
       <c r="H76" s="14"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="10">
         <v>1675</v>
       </c>
@@ -2802,7 +2796,7 @@
       </c>
       <c r="H77" s="14"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="8">
         <v>1676</v>
       </c>
@@ -2826,7 +2820,7 @@
       </c>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="8">
         <v>1677</v>
       </c>
@@ -2850,7 +2844,7 @@
       </c>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="10">
         <v>1683</v>
       </c>
@@ -2874,7 +2868,7 @@
       </c>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="10">
         <v>1684</v>
       </c>
@@ -2898,7 +2892,7 @@
       </c>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="10">
         <v>1685</v>
       </c>
@@ -2922,7 +2916,7 @@
       </c>
       <c r="H82" s="14"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="10">
         <v>1686</v>
       </c>
@@ -2946,7 +2940,7 @@
       </c>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="10">
         <v>1692</v>
       </c>
@@ -2970,7 +2964,7 @@
       </c>
       <c r="H84" s="14"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="10">
         <v>1693</v>
       </c>
@@ -2994,7 +2988,7 @@
       </c>
       <c r="H85" s="14"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="10">
         <v>1711</v>
       </c>
@@ -3018,7 +3012,7 @@
       </c>
       <c r="H86" s="14"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="10">
         <v>1712</v>
       </c>
@@ -3042,7 +3036,7 @@
       </c>
       <c r="H87" s="14"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="10">
         <v>1715</v>
       </c>
@@ -3066,7 +3060,7 @@
       </c>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="10">
         <v>1736</v>
       </c>
@@ -3090,7 +3084,7 @@
       </c>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="10">
         <v>1744</v>
       </c>
@@ -3114,7 +3108,7 @@
       </c>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="10">
         <v>1749</v>
       </c>
@@ -3138,1744 +3132,1744 @@
       </c>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B92" s="2"/>
       <c r="F92" s="1"/>
       <c r="H92" s="13"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B93" s="2"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B94" s="2"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B95" s="2"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B96" s="2"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="2"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="2"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="2"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="2"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="2"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="2"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="2"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="2"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="2"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106" s="2"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107" s="2"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108" s="2"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109" s="2"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B110" s="2"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B111" s="2"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112" s="2"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B113" s="2"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B114" s="2"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B115" s="2"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B116" s="2"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B117" s="2"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B118" s="2"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B119" s="2"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B120" s="2"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B121" s="2"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B122" s="2"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B123" s="2"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B124" s="2"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B125" s="2"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B126" s="2"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B127" s="2"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B128" s="2"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129" s="2"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130" s="2"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="2:6">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131" s="2"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="2:6">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132" s="2"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="2:6">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B133" s="2"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="2:6">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134" s="2"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="2:6">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B135" s="2"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="2:6">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B136" s="2"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="2:6">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B137" s="2"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="2:6">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B138" s="2"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="2:6">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139" s="2"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="2:6">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B140" s="2"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="2:6">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B141" s="2"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="2:6">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B142" s="2"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="2:6">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B143" s="2"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="2:6">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B144" s="2"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="2:6">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B145" s="2"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="2:6">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B146" s="2"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="2:6">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B147" s="2"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="2:6">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B148" s="2"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="2:6">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B149" s="2"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="2:6">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B150" s="2"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="2:6">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B151" s="2"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="2:6">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B152" s="2"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="2:6">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B153" s="2"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="2:6">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B154" s="2"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="2:6">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B155" s="2"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="2:6">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B156" s="2"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="2:6">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B157" s="2"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="2:6">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B158" s="2"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="2:6">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B159" s="2"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="2:6">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B160" s="2"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="2:6">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B161" s="2"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="2:6">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B162" s="2"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="2:6">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B163" s="2"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="2:6">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B164" s="2"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="2:6">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B165" s="2"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="2:6">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B166" s="2"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="2:6">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B167" s="2"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="2:6">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B168" s="2"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="2:6">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B169" s="2"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="2:6">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B170" s="2"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="2:6">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B171" s="2"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="2:6">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B172" s="2"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="2:6">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B173" s="2"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="2:6">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B174" s="2"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="2:6">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B175" s="2"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="2:6">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B176" s="2"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="2:6">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B177" s="2"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B178" s="2"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="2:6">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B179" s="2"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="2:6">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B180" s="2"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="2:6">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B181" s="2"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="2:6">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B182" s="2"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="2:6">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B183" s="2"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="2:6">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B184" s="2"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="2:6">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B185" s="2"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="2:6">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B186" s="2"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B187" s="2"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="2:6">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B188" s="2"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B189" s="2"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="2:6">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B190" s="2"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="2:6">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B191" s="2"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="2:6">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B192" s="2"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="2:6">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B193" s="2"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B194" s="2"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="2:6">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B195" s="2"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="2:6">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B196" s="2"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B197" s="2"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="2:6">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B198" s="2"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="2:6">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B199" s="2"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="2:6">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B200" s="2"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="2:6">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B201" s="2"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="2:6">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B202" s="2"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="2:6">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B203" s="2"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="2:6">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B204" s="2"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="2:6">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B205" s="2"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="2:6">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B206" s="2"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="2:6">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B207" s="2"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="2:6">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B208" s="2"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="2:6">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B209" s="2"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="2:6">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B210" s="2"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="2:6">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B211" s="2"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="2:6">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B212" s="2"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="2:6">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B213" s="2"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="2:6">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B214" s="2"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="2:6">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B215" s="2"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="2:6">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B216" s="2"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="2:6">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B217" s="2"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="2:6">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B218" s="2"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="2:6">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B219" s="2"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="2:6">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B220" s="2"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="2:6">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B221" s="2"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="2:6">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B222" s="2"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="2:6">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B223" s="2"/>
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="2:6">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B224" s="2"/>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="2:6">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B225" s="2"/>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="2:6">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B226" s="2"/>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="2:6">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B227" s="2"/>
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="2:6">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B228" s="2"/>
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="2:6">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B229" s="2"/>
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="2:6">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B230" s="2"/>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="2:6">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B231" s="2"/>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="2:6">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B232" s="2"/>
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="2:6">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B233" s="2"/>
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="2:6">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B234" s="2"/>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="2:6">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B235" s="2"/>
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="2:6">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B236" s="2"/>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="2:6">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B237" s="2"/>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="2:6">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B238" s="2"/>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="2:6">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B239" s="2"/>
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="2:6">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B240" s="2"/>
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="2:6">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B241" s="2"/>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="2:6">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B242" s="2"/>
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="2:6">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B243" s="2"/>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="2:6">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B244" s="2"/>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="2:6">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B245" s="2"/>
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="2:6">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B246" s="2"/>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="2:6">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B247" s="2"/>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="2:6">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B248" s="2"/>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="2:6">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B249" s="2"/>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="2:6">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B250" s="2"/>
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="2:6">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B251" s="2"/>
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="2:6">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B252" s="2"/>
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="2:6">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B253" s="2"/>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="2:6">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B254" s="2"/>
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="2:6">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B255" s="2"/>
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="2:6">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B256" s="2"/>
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="2:6">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B257" s="2"/>
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="2:6">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B258" s="2"/>
       <c r="F258" s="1"/>
     </row>
-    <row r="259" spans="2:6">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B259" s="2"/>
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="2:6">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B260" s="2"/>
       <c r="F260" s="1"/>
     </row>
-    <row r="261" spans="2:6">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B261" s="2"/>
       <c r="F261" s="1"/>
     </row>
-    <row r="262" spans="2:6">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B262" s="2"/>
       <c r="F262" s="1"/>
     </row>
-    <row r="263" spans="2:6">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B263" s="2"/>
       <c r="F263" s="1"/>
     </row>
-    <row r="264" spans="2:6">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B264" s="2"/>
       <c r="F264" s="1"/>
     </row>
-    <row r="265" spans="2:6">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B265" s="2"/>
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="2:6">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B266" s="2"/>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="2:6">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B267" s="2"/>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="2:6">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B268" s="2"/>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="2:6">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B269" s="2"/>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="2:6">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B270" s="2"/>
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="2:6">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B271" s="2"/>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="2:6">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B272" s="2"/>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="2:6">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B273" s="2"/>
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="2:6">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B274" s="2"/>
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="2:6">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B275" s="2"/>
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="2:6">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B276" s="2"/>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="2:6">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B277" s="2"/>
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="2:6">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B278" s="2"/>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="2:6">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B279" s="2"/>
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="2:6">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B280" s="2"/>
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="2:6">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B281" s="2"/>
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="2:6">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B282" s="2"/>
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="2:6">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B283" s="2"/>
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="2:6">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B284" s="2"/>
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="2:6">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B285" s="2"/>
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="2:6">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B286" s="2"/>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="2:6">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B287" s="2"/>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="2:6">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B288" s="2"/>
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="2:6">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B289" s="2"/>
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="2:6">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B290" s="2"/>
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="2:6">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B291" s="2"/>
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="2:6">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B292" s="2"/>
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="2:6">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B293" s="2"/>
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="2:6">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B294" s="2"/>
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="2:6">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B295" s="2"/>
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="2:6">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B296" s="2"/>
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="2:6">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B297" s="2"/>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="2:6">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B298" s="2"/>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="2:6">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B299" s="2"/>
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="2:6">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B300" s="2"/>
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="2:6">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B301" s="2"/>
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="2:6">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B302" s="2"/>
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="2:6">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B303" s="2"/>
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="2:6">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B304" s="2"/>
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="2:6">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B305" s="2"/>
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="2:6">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B306" s="2"/>
       <c r="F306" s="1"/>
     </row>
-    <row r="307" spans="2:6">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B307" s="2"/>
       <c r="F307" s="1"/>
     </row>
-    <row r="308" spans="2:6">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B308" s="2"/>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="2:6">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B309" s="2"/>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" spans="2:6">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B310" s="2"/>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" spans="2:6">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B311" s="2"/>
       <c r="F311" s="1"/>
     </row>
-    <row r="312" spans="2:6">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B312" s="2"/>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" spans="2:6">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B313" s="2"/>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="2:6">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B314" s="2"/>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" spans="2:6">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B315" s="2"/>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="2:6">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B316" s="2"/>
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="2:6">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B317" s="2"/>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="2:6">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B318" s="2"/>
       <c r="F318" s="1"/>
     </row>
-    <row r="319" spans="2:6">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B319" s="2"/>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="2:6">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B320" s="2"/>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" spans="2:6">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B321" s="2"/>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="2:6">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B322" s="2"/>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="2:6">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B323" s="2"/>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" spans="2:6">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B324" s="2"/>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" spans="2:6">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B325" s="2"/>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" spans="2:6">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B326" s="2"/>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="2:6">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B327" s="2"/>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="2:6">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B328" s="2"/>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="2:6">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B329" s="2"/>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="2:6">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B330" s="2"/>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="2:6">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B331" s="2"/>
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="2:6">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B332" s="2"/>
       <c r="F332" s="1"/>
     </row>
-    <row r="333" spans="2:6">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B333" s="2"/>
       <c r="F333" s="1"/>
     </row>
-    <row r="334" spans="2:6">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B334" s="2"/>
       <c r="F334" s="1"/>
     </row>
-    <row r="335" spans="2:6">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B335" s="2"/>
       <c r="F335" s="1"/>
     </row>
-    <row r="336" spans="2:6">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B336" s="2"/>
       <c r="F336" s="1"/>
     </row>
-    <row r="337" spans="2:6">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B337" s="2"/>
       <c r="F337" s="1"/>
     </row>
-    <row r="338" spans="2:6">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B338" s="2"/>
       <c r="F338" s="1"/>
     </row>
-    <row r="339" spans="2:6">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B339" s="2"/>
       <c r="F339" s="1"/>
     </row>
-    <row r="340" spans="2:6">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B340" s="2"/>
       <c r="F340" s="1"/>
     </row>
-    <row r="341" spans="2:6">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B341" s="2"/>
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="2:6">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B342" s="2"/>
       <c r="F342" s="1"/>
     </row>
-    <row r="343" spans="2:6">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B343" s="2"/>
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="2:6">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B344" s="2"/>
       <c r="F344" s="1"/>
     </row>
-    <row r="345" spans="2:6">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B345" s="2"/>
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="2:6">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B346" s="2"/>
       <c r="F346" s="1"/>
     </row>
-    <row r="347" spans="2:6">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B347" s="2"/>
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="2:6">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B348" s="2"/>
       <c r="F348" s="1"/>
     </row>
-    <row r="349" spans="2:6">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B349" s="2"/>
       <c r="F349" s="1"/>
     </row>
-    <row r="350" spans="2:6">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B350" s="2"/>
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="2:6">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B351" s="2"/>
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="2:6">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B352" s="2"/>
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="2:6">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B353" s="2"/>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="2:6">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B354" s="2"/>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="2:6">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B355" s="2"/>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="2:6">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B356" s="2"/>
       <c r="F356" s="1"/>
     </row>
-    <row r="357" spans="2:6">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B357" s="2"/>
       <c r="F357" s="1"/>
     </row>
-    <row r="358" spans="2:6">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B358" s="2"/>
       <c r="F358" s="1"/>
     </row>
-    <row r="359" spans="2:6">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B359" s="2"/>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="2:6">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B360" s="2"/>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="2:6">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B361" s="2"/>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="2:6">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B362" s="2"/>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="2:6">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B363" s="2"/>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="2:6">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B364" s="2"/>
       <c r="F364" s="1"/>
     </row>
-    <row r="365" spans="2:6">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B365" s="2"/>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="2:6">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B366" s="2"/>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="2:6">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B367" s="2"/>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="2:6">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B368" s="2"/>
       <c r="F368" s="1"/>
     </row>
-    <row r="369" spans="2:6">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B369" s="2"/>
       <c r="F369" s="1"/>
     </row>
-    <row r="370" spans="2:6">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B370" s="2"/>
       <c r="F370" s="1"/>
     </row>
-    <row r="371" spans="2:6">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B371" s="2"/>
       <c r="F371" s="1"/>
     </row>
-    <row r="372" spans="2:6">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B372" s="2"/>
       <c r="F372" s="1"/>
     </row>
-    <row r="373" spans="2:6">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B373" s="2"/>
       <c r="F373" s="1"/>
     </row>
-    <row r="374" spans="2:6">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B374" s="2"/>
       <c r="F374" s="1"/>
     </row>
-    <row r="375" spans="2:6">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B375" s="2"/>
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="2:6">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B376" s="2"/>
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="2:6">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B377" s="2"/>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="2:6">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B378" s="2"/>
       <c r="F378" s="1"/>
     </row>
-    <row r="379" spans="2:6">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B379" s="2"/>
       <c r="F379" s="1"/>
     </row>
-    <row r="380" spans="2:6">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B380" s="2"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="2:6">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B381" s="2"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="2:6">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B382" s="2"/>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="2:6">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B383" s="2"/>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="2:6">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B384" s="2"/>
       <c r="F384" s="1"/>
     </row>
-    <row r="385" spans="2:6">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B385" s="2"/>
       <c r="F385" s="1"/>
     </row>
-    <row r="386" spans="2:6">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B386" s="2"/>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="2:6">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B387" s="2"/>
       <c r="F387" s="1"/>
     </row>
-    <row r="388" spans="2:6">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B388" s="2"/>
       <c r="F388" s="1"/>
     </row>
-    <row r="389" spans="2:6">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B389" s="2"/>
       <c r="F389" s="1"/>
     </row>
-    <row r="390" spans="2:6">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B390" s="2"/>
       <c r="F390" s="1"/>
     </row>
-    <row r="391" spans="2:6">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B391" s="2"/>
       <c r="F391" s="1"/>
     </row>
-    <row r="392" spans="2:6">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B392" s="2"/>
       <c r="F392" s="1"/>
     </row>
-    <row r="393" spans="2:6">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B393" s="2"/>
       <c r="F393" s="1"/>
     </row>
-    <row r="394" spans="2:6">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B394" s="2"/>
       <c r="F394" s="1"/>
     </row>
-    <row r="395" spans="2:6">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B395" s="2"/>
       <c r="F395" s="1"/>
     </row>
-    <row r="396" spans="2:6">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B396" s="2"/>
       <c r="F396" s="1"/>
     </row>
-    <row r="397" spans="2:6">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B397" s="2"/>
       <c r="F397" s="1"/>
     </row>
-    <row r="398" spans="2:6">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B398" s="2"/>
       <c r="F398" s="1"/>
     </row>
-    <row r="399" spans="2:6">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B399" s="2"/>
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="2:6">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B400" s="2"/>
       <c r="F400" s="1"/>
     </row>
-    <row r="401" spans="2:6">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B401" s="2"/>
       <c r="F401" s="1"/>
     </row>
-    <row r="402" spans="2:6">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B402" s="2"/>
       <c r="F402" s="1"/>
     </row>
-    <row r="403" spans="2:6">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B403" s="2"/>
       <c r="F403" s="1"/>
     </row>
-    <row r="404" spans="2:6">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B404" s="2"/>
       <c r="F404" s="1"/>
     </row>
-    <row r="405" spans="2:6">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B405" s="2"/>
       <c r="F405" s="1"/>
     </row>
-    <row r="406" spans="2:6">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B406" s="2"/>
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="2:6">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B407" s="2"/>
       <c r="F407" s="1"/>
     </row>
-    <row r="408" spans="2:6">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B408" s="2"/>
       <c r="F408" s="1"/>
     </row>
-    <row r="409" spans="2:6">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B409" s="2"/>
       <c r="F409" s="1"/>
     </row>
-    <row r="410" spans="2:6" ht="18.75" customHeight="1">
+    <row r="410" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B410" s="2"/>
       <c r="F410" s="6"/>
     </row>
-    <row r="411" spans="2:6" ht="18.75" customHeight="1">
+    <row r="411" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B411" s="2"/>
       <c r="F411" s="6"/>
     </row>
-    <row r="412" spans="2:6" ht="18.75" customHeight="1">
+    <row r="412" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B412" s="2"/>
       <c r="F412" s="6"/>
     </row>
-    <row r="413" spans="2:6" ht="18.75" customHeight="1">
+    <row r="413" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B413" s="2"/>
       <c r="F413" s="6"/>
     </row>
-    <row r="414" spans="2:6" ht="18.75" customHeight="1">
+    <row r="414" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B414" s="2"/>
       <c r="F414" s="6"/>
     </row>
-    <row r="415" spans="2:6" ht="18.75" customHeight="1">
+    <row r="415" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B415" s="2"/>
       <c r="F415" s="6"/>
     </row>
-    <row r="416" spans="2:6" ht="18.75" customHeight="1">
+    <row r="416" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B416" s="2"/>
       <c r="F416" s="6"/>
     </row>
-    <row r="417" spans="2:6" ht="18.75" customHeight="1">
+    <row r="417" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B417" s="2"/>
       <c r="F417" s="6"/>
     </row>
-    <row r="418" spans="2:6" ht="18.75" customHeight="1">
+    <row r="418" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B418" s="2"/>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="2:6" ht="18.75" customHeight="1">
+    <row r="419" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B419" s="2"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="2:6" ht="18.75" customHeight="1">
+    <row r="420" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B420" s="2"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="2:6" ht="18.75" customHeight="1">
+    <row r="421" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B421" s="2"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="2:6" ht="18.75" customHeight="1">
+    <row r="422" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B422" s="2"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="2:6" ht="18.75" customHeight="1">
+    <row r="423" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B423" s="2"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="2:6" ht="18.75" customHeight="1">
+    <row r="424" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B424" s="2"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="2:6" ht="18.75" customHeight="1">
+    <row r="425" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B425" s="2"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="2:6" ht="18.75" customHeight="1">
+    <row r="426" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B426" s="2"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="2:6" ht="18.75" customHeight="1">
+    <row r="427" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B427" s="2"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="2:6" ht="18.75" customHeight="1">
+    <row r="428" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B428" s="2"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="2:6" ht="18.75" customHeight="1">
+    <row r="429" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B429" s="2"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="2:6" ht="18.75" customHeight="1">
+    <row r="430" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B430" s="2"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="2:6">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B431" s="2"/>
       <c r="F431" s="1"/>
     </row>
-    <row r="432" spans="2:6">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B432" s="2"/>
       <c r="F432" s="1"/>
     </row>
-    <row r="433" spans="2:6">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B433" s="2"/>
       <c r="F433" s="1"/>
     </row>
-    <row r="434" spans="2:6">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B434" s="2"/>
       <c r="F434" s="1"/>
     </row>
-    <row r="435" spans="2:6">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B435" s="2"/>
       <c r="F435" s="1"/>
     </row>
-    <row r="436" spans="2:6">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B436" s="2"/>
       <c r="F436" s="1"/>
     </row>
-    <row r="437" spans="2:6">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B437" s="2"/>
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="2:6">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B438" s="2"/>
       <c r="F438" s="1"/>
     </row>
-    <row r="439" spans="2:6">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B439" s="2"/>
       <c r="F439" s="1"/>
     </row>
-    <row r="440" spans="2:6">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B440" s="2"/>
       <c r="F440" s="1"/>
     </row>
-    <row r="441" spans="2:6">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B441" s="2"/>
       <c r="F441" s="1"/>
     </row>
-    <row r="442" spans="2:6">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B442" s="2"/>
       <c r="F442" s="1"/>
     </row>
-    <row r="443" spans="2:6">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B443" s="2"/>
       <c r="F443" s="1"/>
     </row>
-    <row r="444" spans="2:6">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B444" s="2"/>
       <c r="F444" s="1"/>
     </row>
-    <row r="445" spans="2:6">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B445" s="2"/>
       <c r="F445" s="1"/>
     </row>
-    <row r="446" spans="2:6">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B446" s="2"/>
       <c r="F446" s="1"/>
     </row>
-    <row r="447" spans="2:6">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B447" s="2"/>
       <c r="F447" s="1"/>
     </row>
-    <row r="448" spans="2:6">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B448" s="2"/>
       <c r="F448" s="1"/>
     </row>
-    <row r="449" spans="2:6">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B449" s="2"/>
       <c r="F449" s="1"/>
     </row>
-    <row r="450" spans="2:6">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B450" s="2"/>
       <c r="F450" s="1"/>
     </row>
-    <row r="451" spans="2:6">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B451" s="2"/>
       <c r="F451" s="1"/>
     </row>
-    <row r="452" spans="2:6">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B452" s="2"/>
       <c r="F452" s="1"/>
     </row>
-    <row r="453" spans="2:6">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B453" s="2"/>
       <c r="F453" s="1"/>
     </row>
-    <row r="454" spans="2:6">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B454" s="2"/>
       <c r="F454" s="1"/>
     </row>
-    <row r="455" spans="2:6">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B455" s="2"/>
       <c r="F455" s="1"/>
     </row>
-    <row r="456" spans="2:6">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B456" s="2"/>
       <c r="F456" s="1"/>
     </row>
-    <row r="457" spans="2:6">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B457" s="2"/>
       <c r="F457" s="1"/>
     </row>
-    <row r="458" spans="2:6">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B458" s="2"/>
       <c r="F458" s="1"/>
     </row>
-    <row r="459" spans="2:6">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B459" s="2"/>
       <c r="F459" s="1"/>
     </row>
-    <row r="460" spans="2:6">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B460" s="2"/>
       <c r="F460" s="1"/>
     </row>
-    <row r="461" spans="2:6">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B461" s="2"/>
       <c r="F461" s="1"/>
     </row>
-    <row r="462" spans="2:6">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B462" s="2"/>
       <c r="F462" s="1"/>
     </row>
-    <row r="463" spans="2:6">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B463" s="2"/>
       <c r="F463" s="1"/>
     </row>
-    <row r="464" spans="2:6">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B464" s="2"/>
       <c r="F464" s="1"/>
     </row>
-    <row r="465" spans="2:6">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B465" s="2"/>
       <c r="F465" s="1"/>
     </row>
-    <row r="466" spans="2:6">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B466" s="2"/>
       <c r="F466" s="1"/>
     </row>
-    <row r="467" spans="2:6">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B467" s="2"/>
       <c r="F467" s="1"/>
     </row>
-    <row r="468" spans="2:6">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B468" s="2"/>
       <c r="F468" s="1"/>
     </row>
-    <row r="469" spans="2:6">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B469" s="2"/>
       <c r="F469" s="1"/>
     </row>
-    <row r="470" spans="2:6">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B470" s="2"/>
       <c r="F470" s="1"/>
     </row>
-    <row r="471" spans="2:6">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B471" s="2"/>
       <c r="F471" s="1"/>
     </row>
-    <row r="472" spans="2:6">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B472" s="2"/>
       <c r="F472" s="1"/>
     </row>
-    <row r="473" spans="2:6">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B473" s="2"/>
       <c r="F473" s="1"/>
     </row>
-    <row r="474" spans="2:6">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B474" s="2"/>
       <c r="F474" s="1"/>
     </row>
-    <row r="475" spans="2:6">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B475" s="2"/>
       <c r="F475" s="1"/>
     </row>
-    <row r="476" spans="2:6">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B476" s="2"/>
       <c r="F476" s="1"/>
     </row>
-    <row r="477" spans="2:6">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B477" s="2"/>
       <c r="F477" s="1"/>
     </row>
-    <row r="478" spans="2:6">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B478" s="2"/>
       <c r="F478" s="1"/>
     </row>
-    <row r="479" spans="2:6">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B479" s="2"/>
       <c r="F479" s="1"/>
     </row>
-    <row r="480" spans="2:6">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B480" s="2"/>
       <c r="F480" s="1"/>
     </row>
-    <row r="481" spans="2:6">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B481" s="2"/>
       <c r="F481" s="1"/>
     </row>
-    <row r="482" spans="2:6">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B482" s="2"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="2:6">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B483" s="2"/>
       <c r="F483" s="1"/>
     </row>
-    <row r="484" spans="2:6">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B484" s="2"/>
       <c r="F484" s="1"/>
     </row>
-    <row r="485" spans="2:6">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B485" s="2"/>
       <c r="F485" s="1"/>
     </row>
-    <row r="486" spans="2:6">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B486" s="2"/>
       <c r="F486" s="1"/>
     </row>
-    <row r="487" spans="2:6">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B487" s="2"/>
       <c r="F487" s="1"/>
     </row>
-    <row r="488" spans="2:6">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B488" s="2"/>
       <c r="F488" s="1"/>
     </row>
-    <row r="489" spans="2:6">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B489" s="2"/>
       <c r="F489" s="1"/>
     </row>
-    <row r="490" spans="2:6">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B490" s="2"/>
       <c r="F490" s="1"/>
     </row>
-    <row r="491" spans="2:6">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B491" s="2"/>
       <c r="F491" s="1"/>
     </row>
-    <row r="492" spans="2:6">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B492" s="2"/>
       <c r="F492" s="1"/>
     </row>
-    <row r="493" spans="2:6">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B493" s="2"/>
       <c r="F493" s="1"/>
     </row>
-    <row r="494" spans="2:6">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B494" s="2"/>
       <c r="F494" s="1"/>
     </row>
-    <row r="495" spans="2:6">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B495" s="2"/>
       <c r="F495" s="1"/>
     </row>
-    <row r="496" spans="2:6">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B496" s="2"/>
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="2:6">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B497" s="2"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="2:6">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B498" s="2"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="2:6">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B499" s="2"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="2:6">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B500" s="2"/>
       <c r="F500" s="1"/>
     </row>
-    <row r="501" spans="2:6">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B501" s="2"/>
       <c r="F501" s="1"/>
     </row>
-    <row r="502" spans="2:6">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B502" s="2"/>
       <c r="F502" s="1"/>
     </row>
-    <row r="503" spans="2:6">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B503" s="2"/>
       <c r="F503" s="1"/>
     </row>
-    <row r="504" spans="2:6">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B504" s="2"/>
       <c r="F504" s="1"/>
     </row>
-    <row r="505" spans="2:6">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B505" s="2"/>
       <c r="F505" s="1"/>
     </row>
-    <row r="506" spans="2:6">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B506" s="2"/>
       <c r="F506" s="1"/>
     </row>
-    <row r="507" spans="2:6">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B507" s="2"/>
       <c r="F507" s="1"/>
     </row>
-    <row r="508" spans="2:6">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B508" s="2"/>
       <c r="F508" s="1"/>
     </row>
-    <row r="509" spans="2:6">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B509" s="2"/>
       <c r="F509" s="1"/>
     </row>
-    <row r="510" spans="2:6">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B510" s="2"/>
       <c r="F510" s="1"/>
     </row>
-    <row r="511" spans="2:6">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B511" s="2"/>
       <c r="F511" s="1"/>
     </row>
-    <row r="512" spans="2:6">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B512" s="2"/>
       <c r="F512" s="1"/>
     </row>
-    <row r="513" spans="2:6">
+    <row r="513" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B513" s="2"/>
       <c r="F513" s="1"/>
     </row>
-    <row r="514" spans="2:6">
+    <row r="514" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B514" s="2"/>
       <c r="F514" s="1"/>
     </row>
-    <row r="515" spans="2:6">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B515" s="2"/>
       <c r="F515" s="1"/>
     </row>
-    <row r="516" spans="2:6">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B516" s="2"/>
       <c r="F516" s="1"/>
     </row>
-    <row r="517" spans="2:6">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B517" s="2"/>
       <c r="F517" s="1"/>
     </row>
-    <row r="518" spans="2:6">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B518" s="2"/>
       <c r="F518" s="1"/>
     </row>
-    <row r="519" spans="2:6">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B519" s="2"/>
       <c r="F519" s="1"/>
     </row>
-    <row r="520" spans="2:6">
+    <row r="520" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B520" s="2"/>
       <c r="F520" s="1"/>
     </row>
-    <row r="521" spans="2:6">
+    <row r="521" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B521" s="2"/>
       <c r="F521" s="1"/>
     </row>
-    <row r="522" spans="2:6">
+    <row r="522" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B522" s="2"/>
       <c r="F522" s="1"/>
     </row>
-    <row r="523" spans="2:6">
+    <row r="523" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B523" s="2"/>
       <c r="F523" s="1"/>
     </row>
-    <row r="524" spans="2:6">
+    <row r="524" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B524" s="2"/>
       <c r="F524" s="1"/>
     </row>
-    <row r="525" spans="2:6">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B525" s="2"/>
       <c r="F525" s="1"/>
     </row>
-    <row r="526" spans="2:6">
+    <row r="526" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B526" s="2"/>
       <c r="F526" s="1"/>
     </row>
@@ -4887,19 +4881,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
         <v>43972</v>
       </c>
@@ -4907,7 +4901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>22</v>
@@ -4937,7 +4931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>43856</v>
       </c>
@@ -4966,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>43857</v>
       </c>
@@ -4995,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>43858</v>
       </c>
@@ -5024,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>43859</v>
       </c>
@@ -5053,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>43860</v>
       </c>
@@ -5082,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>43861</v>
       </c>
@@ -5111,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>43862</v>
       </c>
@@ -5140,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>43863</v>
       </c>
@@ -5169,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>43864</v>
       </c>
@@ -5198,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>43865</v>
       </c>
@@ -5227,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>43866</v>
       </c>
@@ -5256,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>43867</v>
       </c>
@@ -5285,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>43868</v>
       </c>
@@ -5314,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>43869</v>
       </c>
@@ -5343,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>43870</v>
       </c>
@@ -5372,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>43871</v>
       </c>
@@ -5401,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>43872</v>
       </c>
@@ -5430,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>43873</v>
       </c>
@@ -5459,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>43874</v>
       </c>
@@ -5488,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>43875</v>
       </c>
@@ -5517,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>43876</v>
       </c>
@@ -5546,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>43877</v>
       </c>
@@ -5575,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>43878</v>
       </c>
@@ -5604,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>43879</v>
       </c>
@@ -5633,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>43880</v>
       </c>
@@ -5662,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>43881</v>
       </c>
@@ -5691,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>43882</v>
       </c>
@@ -5720,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>43883</v>
       </c>
@@ -5749,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>43884</v>
       </c>
@@ -5778,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>43885</v>
       </c>
@@ -5807,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="7">
         <v>43886</v>
       </c>
@@ -5836,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="7">
         <v>43887</v>
       </c>
@@ -5865,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
         <v>43888</v>
       </c>
@@ -5894,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
         <v>43889</v>
       </c>
@@ -5923,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="7">
         <v>43890</v>
       </c>
@@ -5952,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="7">
         <v>43891</v>
       </c>
@@ -5981,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="7">
         <v>43892</v>
       </c>
@@ -6010,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="7">
         <v>43893</v>
       </c>
@@ -6039,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="7">
         <v>43894</v>
       </c>
@@ -6071,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="7">
         <v>43895</v>
       </c>
@@ -6103,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="7">
         <v>43896</v>
       </c>
@@ -6135,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="7">
         <v>43897</v>
       </c>
@@ -6167,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="7">
         <v>43898</v>
       </c>
@@ -6199,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="7">
         <v>43899</v>
       </c>
@@ -6231,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="7">
         <v>43900</v>
       </c>
@@ -6263,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="7">
         <v>43901</v>
       </c>
@@ -6295,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="7">
         <v>43902</v>
       </c>
@@ -6327,7 +6321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="7">
         <v>43903</v>
       </c>
@@ -6359,7 +6353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="7">
         <v>43904</v>
       </c>
@@ -6391,7 +6385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="7">
         <v>43905</v>
       </c>
@@ -6423,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="7">
         <v>43906</v>
       </c>
@@ -6455,7 +6449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="7">
         <v>43907</v>
       </c>
@@ -6487,7 +6481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="7">
         <v>43908</v>
       </c>
@@ -6519,7 +6513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="7">
         <v>43909</v>
       </c>
@@ -6551,7 +6545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="7">
         <v>43910</v>
       </c>
@@ -6583,7 +6577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="7">
         <v>43911</v>
       </c>
@@ -6615,7 +6609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="7">
         <v>43912</v>
       </c>
@@ -6647,7 +6641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="7">
         <v>43913</v>
       </c>
@@ -6679,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="7">
         <v>43914</v>
       </c>
@@ -6711,7 +6705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="7">
         <v>43915</v>
       </c>
@@ -6743,7 +6737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="7">
         <v>43916</v>
       </c>
@@ -6775,7 +6769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="7">
         <v>43917</v>
       </c>
@@ -6807,7 +6801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="7">
         <v>43918</v>
       </c>
@@ -6839,7 +6833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="7">
         <v>43919</v>
       </c>
@@ -6871,7 +6865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="7">
         <v>43920</v>
       </c>
@@ -6903,7 +6897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="7">
         <v>43921</v>
       </c>
@@ -6935,7 +6929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="7">
         <v>43922</v>
       </c>
@@ -6967,7 +6961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="7">
         <v>43923</v>
       </c>
@@ -6999,7 +6993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="5" customFormat="1">
+    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="7">
         <v>43924</v>
       </c>
@@ -7033,7 +7027,7 @@
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" s="5" customFormat="1">
+    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="7">
         <v>43925</v>
       </c>
@@ -7067,7 +7061,7 @@
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" s="5" customFormat="1">
+    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="7">
         <v>43926</v>
       </c>
@@ -7101,7 +7095,7 @@
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="1:11" s="5" customFormat="1">
+    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="7">
         <v>43927</v>
       </c>
@@ -7135,7 +7129,7 @@
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" s="5" customFormat="1">
+    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="7">
         <v>43928</v>
       </c>
@@ -7169,7 +7163,7 @@
       <c r="J75"/>
       <c r="K75"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="7">
         <v>43929</v>
       </c>
@@ -7201,7 +7195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="7">
         <v>43930</v>
       </c>
@@ -7233,7 +7227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="7">
         <v>43931</v>
       </c>
@@ -7265,7 +7259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="7">
         <v>43932</v>
       </c>
@@ -7297,7 +7291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="7">
         <v>43933</v>
       </c>
@@ -7329,7 +7323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="7">
         <v>43934</v>
       </c>
@@ -7361,7 +7355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="7">
         <v>43935</v>
       </c>
@@ -7393,7 +7387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="7">
         <v>43936</v>
       </c>
@@ -7425,7 +7419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="7">
         <v>43937</v>
       </c>
@@ -7457,7 +7451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="7">
         <v>43938</v>
       </c>
@@ -7489,7 +7483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="7">
         <v>43939</v>
       </c>
@@ -7521,7 +7515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="7">
         <v>43940</v>
       </c>
@@ -7553,7 +7547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="7">
         <v>43941</v>
       </c>
@@ -7585,7 +7579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="7">
         <v>43942</v>
       </c>
@@ -7617,7 +7611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="7">
         <v>43943</v>
       </c>
@@ -7649,7 +7643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="7">
         <v>43944</v>
       </c>
@@ -7681,7 +7675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="7">
         <v>43945</v>
       </c>
@@ -7713,7 +7707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="7">
         <v>43946</v>
       </c>
@@ -7745,7 +7739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="7">
         <v>43947</v>
       </c>
@@ -7777,7 +7771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="7">
         <v>43948</v>
       </c>
@@ -7809,7 +7803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="7">
         <v>43949</v>
       </c>
@@ -7841,7 +7835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="7">
         <v>43950</v>
       </c>
@@ -7873,7 +7867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="7">
         <v>43951</v>
       </c>
@@ -7905,7 +7899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="7">
         <v>43952</v>
       </c>
@@ -7937,7 +7931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="7">
         <v>43953</v>
       </c>
@@ -7969,7 +7963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="7">
         <v>43954</v>
       </c>
@@ -8001,7 +7995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="7">
         <v>43955</v>
       </c>
@@ -8033,7 +8027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="7">
         <v>43956</v>
       </c>
@@ -8065,7 +8059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="7">
         <v>43957</v>
       </c>
@@ -8097,7 +8091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="7">
         <v>43958</v>
       </c>
@@ -8129,7 +8123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="7">
         <v>43959</v>
       </c>
@@ -8161,7 +8155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="7">
         <v>43960</v>
       </c>
@@ -8193,7 +8187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="7">
         <v>43961</v>
       </c>
@@ -8225,7 +8219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="7">
         <v>43962</v>
       </c>
@@ -8257,7 +8251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="7">
         <v>43963</v>
       </c>
@@ -8289,7 +8283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="7">
         <v>43964</v>
       </c>
@@ -8321,7 +8315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="7">
         <v>43965</v>
       </c>
@@ -8353,7 +8347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="7">
         <v>43966</v>
       </c>
@@ -8385,7 +8379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="7">
         <v>43967</v>
       </c>
@@ -8417,7 +8411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="7">
         <v>43968</v>
       </c>
@@ -8449,7 +8443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="7">
         <v>43969</v>
       </c>
@@ -8481,7 +8475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="7">
         <v>43970</v>
       </c>
@@ -8513,7 +8507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="7">
         <v>43971</v>
       </c>
@@ -8545,15 +8539,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="7">
         <v>43972</v>
       </c>
       <c r="B119">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>89</v>
@@ -8568,13 +8562,13 @@
         <v>57</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I119">
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
